--- a/medicine/Psychotrope/Adler-Brauerei_Coswig/Adler-Brauerei_Coswig.xlsx
+++ b/medicine/Psychotrope/Adler-Brauerei_Coswig/Adler-Brauerei_Coswig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adler-Brauerei Coswig était une brasserie à Coswig, dans le Land de Saxe.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1444, les villages autour de Meissen obtiennent un droit de brassage. C'est pourquoi il est écrit cette date sur l'étiquette alors que la brasserie fut créée bien plus tard. On mentionne la première brasserie à Coswig vers 1500.
 En 1628, on mentionne pour la première fois la Coswiger Brauerei, propriété de Nicol Leutericz. En 1706, Valten Jost. F.E. Petermann acquiert une distillerie, une brasserie, une malterie et la maison avec des écuries. En 1738, une retenue d'eau en bois de trois kilomètres de long est construite pour couvrir la demande en eau de brassage. La brasserie appartient aux Petermann jusqu'en 1847.
@@ -546,7 +560,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>anciennes bières
 Bürgerbräu
